--- a/tests/fixtures/verification/cases/semantic/00001/00001-wc_lang_population.xlsx
+++ b/tests/fixtures/verification/cases/semantic/00001/00001-wc_lang_population.xlsx
@@ -9,9 +9,9 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="820" yWindow="460" windowWidth="33200" windowHeight="6360" firstSheet="10" activeTab="16"/>
-    <workbookView xWindow="640" yWindow="7160" windowWidth="34180" windowHeight="5260" tabRatio="500" firstSheet="8" activeTab="10"/>
-    <workbookView xWindow="500" yWindow="13420" windowWidth="36900" windowHeight="4820" tabRatio="500" firstSheet="7" activeTab="12"/>
+    <workbookView xWindow="820" yWindow="460" windowWidth="33200" windowHeight="6360" firstSheet="10" activeTab="10"/>
+    <workbookView xWindow="640" yWindow="7160" windowWidth="34180" windowHeight="6900" tabRatio="500" firstSheet="8" activeTab="16"/>
+    <workbookView xWindow="500" yWindow="14100" windowWidth="36900" windowHeight="5820" tabRatio="500" firstSheet="7" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="!!_Table of contents" sheetId="1" r:id="rId1"/>
@@ -4850,10 +4850,10 @@
     <t>1 / mole</t>
   </si>
   <si>
-    <t>conv_1 * k1 * S1[c] * pop_2_conc * c / density_c</t>
-  </si>
-  <si>
     <t>test_case_00001_converted</t>
+  </si>
+  <si>
+    <t>conv_1 * k1 * S1[c] * pop_2_conc * vol_c</t>
   </si>
 </sst>
 </file>
@@ -5883,11 +5883,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+    <sheetView showRowColHeaders="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D8"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
-    <sheetView showRowColHeaders="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="1">
+    <sheetView showRowColHeaders="0" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="1">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
     <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="2">
@@ -6448,7 +6448,7 @@
     </sheetView>
     <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="1"/>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="2">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -6531,7 +6531,7 @@
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>184</v>
@@ -7406,11 +7406,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
-    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="1">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="1">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
     <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="2">
@@ -8415,7 +8415,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
